--- a/a1/2.xlsx
+++ b/a1/2.xlsx
@@ -345,7 +345,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
